--- a/actiTIME/data/TestScript.xlsx
+++ b/actiTIME/data/TestScript.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E28F8F6E-6D45-49EA-B0FA-A83D1B06D704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FA637432-C174-4794-964B-56BADDF1CD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23304" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateTask" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>CustomerName</t>
   </si>
@@ -33,6 +34,21 @@
   </si>
   <si>
     <t>HDFC_003</t>
+  </si>
+  <si>
+    <t>SBI-007</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>SBI-008</t>
   </si>
 </sst>
 </file>
@@ -350,32 +366,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4CDF7-5BCD-4BE9-A407-B2844C4D814A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
